--- a/biology/Zoologie/Aphthona/Aphthona.xlsx
+++ b/biology/Zoologie/Aphthona/Aphthona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphthona est un genre de coléoptères qui comprend de nombreuses espèces de petite taille. Ce sont des coléoptères sauteurs dont certains, comme l'altise commune, sont des ravageurs des cultures de crucifères.
  Portail de l’entomologie                     </t>
